--- a/iam_비교.xlsx
+++ b/iam_비교.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="IAM비교" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="669">
   <si>
     <t>Directory Services Plus</t>
   </si>
@@ -3995,6 +3995,10 @@
   </si>
   <si>
     <t>권한 Role 부여 방식 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5683,6 +5687,87 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5692,92 +5777,95 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5841,90 +5929,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -6984,10 +6988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7407,6 +7411,11 @@
         <v>643</v>
       </c>
     </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="32" t="s">
+        <v>668</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A7:A10"/>
@@ -7422,7 +7431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -7542,16 +7551,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="153" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="58" t="s">
@@ -7580,19 +7589,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="154" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="156" t="s">
         <v>545</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7621,7 +7630,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="172"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="1" t="s">
         <v>548</v>
       </c>
@@ -7648,7 +7657,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="172"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7675,7 +7684,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="172"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="1" t="s">
         <v>549</v>
       </c>
@@ -7702,7 +7711,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="175"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="1" t="s">
         <v>550</v>
       </c>
@@ -7727,13 +7736,13 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="151" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
       <c r="F9" s="63">
         <f>SUM(F4:F7)+G8</f>
         <v>4376941703.7829571</v>
@@ -7771,64 +7780,64 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="154" t="s">
         <v>556</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="159" t="s">
         <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="177" t="s">
+      <c r="C12" s="160" t="s">
         <v>559</v>
       </c>
-      <c r="D12" s="179">
+      <c r="D12" s="162">
         <v>5</v>
       </c>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="164" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="181" t="s">
+      <c r="F12" s="164" t="s">
         <v>536</v>
       </c>
-      <c r="G12" s="164">
+      <c r="G12" s="166">
         <v>20000000</v>
       </c>
-      <c r="H12" s="166">
+      <c r="H12" s="168">
         <f>G12*D12</f>
         <v>100000000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="176"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="167"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="169"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="168" t="s">
+      <c r="A14" s="152" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
       <c r="F14" s="63">
         <f>SUM(F12:F13)</f>
         <v>0</v>
@@ -7866,19 +7875,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="154" t="s">
         <v>562</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="156" t="s">
         <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7907,7 +7916,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="172"/>
+      <c r="A18" s="157"/>
       <c r="B18" s="1" t="s">
         <v>537</v>
       </c>
@@ -7934,7 +7943,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25.5">
-      <c r="A19" s="172"/>
+      <c r="A19" s="157"/>
       <c r="B19" s="1" t="s">
         <v>534</v>
       </c>
@@ -7961,13 +7970,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="151" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
       <c r="F20" s="63">
         <f>SUM(F17:F19)</f>
         <v>740802823.1258049</v>
@@ -7982,10 +7991,10 @@
       <c r="A21" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="172" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="159"/>
+      <c r="C21" s="173"/>
       <c r="D21" s="59" t="s">
         <v>565</v>
       </c>
@@ -8003,25 +8012,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="160" t="s">
+      <c r="A22" s="174" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="176"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="177" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="170" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="155"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="65">
         <v>5</v>
       </c>
@@ -8039,11 +8048,11 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="163"/>
-      <c r="B24" s="154" t="s">
+      <c r="A24" s="177"/>
+      <c r="B24" s="170" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="155"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="65">
         <v>6</v>
       </c>
@@ -8061,11 +8070,11 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="163"/>
-      <c r="B25" s="154" t="s">
+      <c r="A25" s="177"/>
+      <c r="B25" s="170" t="s">
         <v>569</v>
       </c>
-      <c r="C25" s="155"/>
+      <c r="C25" s="171"/>
       <c r="D25" s="65">
         <v>6</v>
       </c>
@@ -8083,11 +8092,11 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="163"/>
-      <c r="B26" s="154" t="s">
+      <c r="A26" s="177"/>
+      <c r="B26" s="170" t="s">
         <v>570</v>
       </c>
-      <c r="C26" s="155"/>
+      <c r="C26" s="171"/>
       <c r="D26" s="65">
         <v>5</v>
       </c>
@@ -8105,11 +8114,11 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="163"/>
-      <c r="B27" s="154" t="s">
+      <c r="A27" s="177"/>
+      <c r="B27" s="170" t="s">
         <v>571</v>
       </c>
-      <c r="C27" s="155"/>
+      <c r="C27" s="171"/>
       <c r="D27" s="65">
         <v>6</v>
       </c>
@@ -8127,11 +8136,11 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="163"/>
-      <c r="B28" s="154" t="s">
+      <c r="A28" s="177"/>
+      <c r="B28" s="170" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="155"/>
+      <c r="C28" s="171"/>
       <c r="D28" s="65">
         <v>6</v>
       </c>
@@ -8149,11 +8158,11 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="163"/>
-      <c r="B29" s="154" t="s">
+      <c r="A29" s="177"/>
+      <c r="B29" s="170" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="155"/>
+      <c r="C29" s="171"/>
       <c r="D29" s="65">
         <v>3</v>
       </c>
@@ -8171,11 +8180,11 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="163"/>
-      <c r="B30" s="154" t="s">
+      <c r="A30" s="177"/>
+      <c r="B30" s="170" t="s">
         <v>573</v>
       </c>
-      <c r="C30" s="155"/>
+      <c r="C30" s="171"/>
       <c r="D30" s="65">
         <v>3</v>
       </c>
@@ -8193,11 +8202,11 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="163"/>
-      <c r="B31" s="154" t="s">
+      <c r="A31" s="177"/>
+      <c r="B31" s="170" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="155"/>
+      <c r="C31" s="171"/>
       <c r="D31" s="65">
         <v>2</v>
       </c>
@@ -8215,11 +8224,11 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="163"/>
-      <c r="B32" s="154" t="s">
+      <c r="A32" s="177"/>
+      <c r="B32" s="170" t="s">
         <v>575</v>
       </c>
-      <c r="C32" s="155"/>
+      <c r="C32" s="171"/>
       <c r="D32" s="65">
         <v>5</v>
       </c>
@@ -8237,11 +8246,11 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="163"/>
-      <c r="B33" s="154" t="s">
+      <c r="A33" s="177"/>
+      <c r="B33" s="170" t="s">
         <v>576</v>
       </c>
-      <c r="C33" s="155"/>
+      <c r="C33" s="171"/>
       <c r="D33" s="65">
         <v>3</v>
       </c>
@@ -8259,11 +8268,11 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="163"/>
-      <c r="B34" s="154" t="s">
+      <c r="A34" s="177"/>
+      <c r="B34" s="170" t="s">
         <v>577</v>
       </c>
-      <c r="C34" s="155"/>
+      <c r="C34" s="171"/>
       <c r="D34" s="65">
         <v>2</v>
       </c>
@@ -8281,11 +8290,11 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="163"/>
-      <c r="B35" s="154" t="s">
+      <c r="A35" s="177"/>
+      <c r="B35" s="170" t="s">
         <v>578</v>
       </c>
-      <c r="C35" s="155"/>
+      <c r="C35" s="171"/>
       <c r="D35" s="65">
         <v>2</v>
       </c>
@@ -8303,11 +8312,11 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="163"/>
-      <c r="B36" s="154" t="s">
+      <c r="A36" s="177"/>
+      <c r="B36" s="170" t="s">
         <v>579</v>
       </c>
-      <c r="C36" s="155"/>
+      <c r="C36" s="171"/>
       <c r="D36" s="65">
         <v>3</v>
       </c>
@@ -8325,11 +8334,11 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="163"/>
-      <c r="B37" s="154" t="s">
+      <c r="A37" s="177"/>
+      <c r="B37" s="170" t="s">
         <v>580</v>
       </c>
-      <c r="C37" s="155"/>
+      <c r="C37" s="171"/>
       <c r="D37" s="65">
         <v>2</v>
       </c>
@@ -8347,11 +8356,11 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="163"/>
-      <c r="B38" s="154" t="s">
+      <c r="A38" s="177"/>
+      <c r="B38" s="170" t="s">
         <v>581</v>
       </c>
-      <c r="C38" s="155"/>
+      <c r="C38" s="171"/>
       <c r="D38" s="65">
         <v>2</v>
       </c>
@@ -8369,11 +8378,11 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="163"/>
-      <c r="B39" s="154" t="s">
+      <c r="A39" s="177"/>
+      <c r="B39" s="170" t="s">
         <v>582</v>
       </c>
-      <c r="C39" s="155"/>
+      <c r="C39" s="171"/>
       <c r="D39" s="65">
         <v>2</v>
       </c>
@@ -8391,13 +8400,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="181" t="s">
         <v>583</v>
       </c>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="157"/>
-      <c r="E40" s="157"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
       <c r="F40" s="69">
         <f>SUM(F23:F37)</f>
         <v>0</v>
@@ -8419,13 +8428,13 @@
       <c r="H41" s="77"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="151" t="s">
+      <c r="A42" s="178" t="s">
         <v>584</v>
       </c>
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="153"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="180"/>
       <c r="F42" s="78">
         <f>F40</f>
         <v>0</v>
@@ -8437,13 +8446,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A43" s="151" t="s">
+      <c r="A43" s="178" t="s">
         <v>585</v>
       </c>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="153"/>
+      <c r="B43" s="179"/>
+      <c r="C43" s="179"/>
+      <c r="D43" s="179"/>
+      <c r="E43" s="180"/>
       <c r="F43" s="78">
         <f>F42*1.1</f>
         <v>0</v>
@@ -8476,6 +8485,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
@@ -8492,29 +8524,6 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8552,16 +8561,16 @@
       <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="223" t="s">
+      <c r="A2" s="183" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="90"/>
@@ -8574,17 +8583,17 @@
       <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A4" s="224"/>
-      <c r="B4" s="224"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
+      <c r="A4" s="184"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="225" t="s">
+      <c r="A5" s="185" t="s">
         <v>587</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -8600,9 +8609,9 @@
       <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="226"/>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="99" t="s">
         <v>590</v>
       </c>
@@ -8617,69 +8626,69 @@
       <c r="A7" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="B7" s="229">
+      <c r="B7" s="189">
         <v>43336</v>
       </c>
-      <c r="C7" s="229"/>
-      <c r="D7" s="219" t="s">
+      <c r="C7" s="189"/>
+      <c r="D7" s="190" t="s">
         <v>593</v>
       </c>
-      <c r="E7" s="219"/>
-      <c r="F7" s="230" t="s">
+      <c r="E7" s="190"/>
+      <c r="F7" s="191" t="s">
         <v>594</v>
       </c>
-      <c r="G7" s="230"/>
-      <c r="H7" s="231"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="192"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="218">
+      <c r="B8" s="193">
         <f>G21</f>
         <v>880000000</v>
       </c>
-      <c r="C8" s="218"/>
-      <c r="D8" s="219" t="s">
+      <c r="C8" s="193"/>
+      <c r="D8" s="190" t="s">
         <v>596</v>
       </c>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220" t="s">
+      <c r="E8" s="190"/>
+      <c r="F8" s="194" t="s">
         <v>597</v>
       </c>
-      <c r="G8" s="220"/>
-      <c r="H8" s="221"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="195"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="106"/>
-      <c r="B9" s="222">
+      <c r="B9" s="196">
         <f>B8*1.1</f>
         <v>968000000.00000012</v>
       </c>
-      <c r="C9" s="222"/>
-      <c r="D9" s="219" t="s">
+      <c r="C9" s="196"/>
+      <c r="D9" s="190" t="s">
         <v>598</v>
       </c>
-      <c r="E9" s="219"/>
-      <c r="F9" s="220" t="s">
+      <c r="E9" s="190"/>
+      <c r="F9" s="194" t="s">
         <v>599</v>
       </c>
-      <c r="G9" s="220"/>
-      <c r="H9" s="221"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="195"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="B10" s="204" t="s">
+      <c r="B10" s="197" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="205"/>
-      <c r="H10" s="206"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="199"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="108"/>
@@ -8709,10 +8718,10 @@
       <c r="A13" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="200" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="208"/>
+      <c r="C13" s="201"/>
       <c r="D13" s="114" t="s">
         <v>606</v>
       </c>
@@ -8730,10 +8739,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="202" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="211" t="s">
+      <c r="B14" s="204" t="s">
         <v>612</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -8756,8 +8765,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="210"/>
-      <c r="B15" s="212"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="205"/>
       <c r="C15" s="10" t="s">
         <v>615</v>
       </c>
@@ -8773,13 +8782,13 @@
       <c r="G15" s="121" t="s">
         <v>617</v>
       </c>
-      <c r="H15" s="214" t="s">
+      <c r="H15" s="207" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="210"/>
-      <c r="B16" s="212"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="205"/>
       <c r="C16" s="8" t="s">
         <v>619</v>
       </c>
@@ -8795,11 +8804,11 @@
       <c r="G16" s="123" t="s">
         <v>617</v>
       </c>
-      <c r="H16" s="215"/>
+      <c r="H16" s="208"/>
     </row>
     <row r="17" spans="1:8" ht="22.5">
-      <c r="A17" s="210"/>
-      <c r="B17" s="212"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="205"/>
       <c r="C17" s="11" t="s">
         <v>620</v>
       </c>
@@ -8815,13 +8824,13 @@
       <c r="G17" s="14">
         <v>300000000</v>
       </c>
-      <c r="H17" s="216" t="s">
+      <c r="H17" s="209" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="210"/>
-      <c r="B18" s="213"/>
+      <c r="A18" s="203"/>
+      <c r="B18" s="206"/>
       <c r="C18" s="11" t="s">
         <v>623</v>
       </c>
@@ -8837,11 +8846,11 @@
       <c r="G18" s="14">
         <v>225000000</v>
       </c>
-      <c r="H18" s="215"/>
+      <c r="H18" s="208"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="210"/>
-      <c r="B19" s="217" t="s">
+      <c r="A19" s="203"/>
+      <c r="B19" s="210" t="s">
         <v>625</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -8864,8 +8873,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="210"/>
-      <c r="B20" s="213"/>
+      <c r="A20" s="203"/>
+      <c r="B20" s="206"/>
       <c r="C20" s="11" t="s">
         <v>627</v>
       </c>
@@ -8886,14 +8895,14 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="218" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
       <c r="G21" s="127">
         <f>SUM(G14:G20)</f>
         <v>880000000</v>
@@ -8904,49 +8913,49 @@
       <c r="A22" s="129" t="s">
         <v>631</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="221" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="194" t="s">
+      <c r="C22" s="222" t="s">
         <v>633</v>
       </c>
-      <c r="D22" s="194" t="s">
+      <c r="D22" s="222" t="s">
         <v>633</v>
       </c>
-      <c r="E22" s="194" t="s">
+      <c r="E22" s="222" t="s">
         <v>633</v>
       </c>
-      <c r="F22" s="194" t="s">
+      <c r="F22" s="222" t="s">
         <v>633</v>
       </c>
-      <c r="G22" s="194" t="s">
+      <c r="G22" s="222" t="s">
         <v>633</v>
       </c>
-      <c r="H22" s="195" t="s">
+      <c r="H22" s="223" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="130"/>
-      <c r="B23" s="196" t="s">
+      <c r="B23" s="224" t="s">
         <v>634</v>
       </c>
-      <c r="C23" s="197" t="s">
+      <c r="C23" s="225" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="197" t="s">
+      <c r="D23" s="225" t="s">
         <v>635</v>
       </c>
-      <c r="E23" s="197" t="s">
+      <c r="E23" s="225" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="197" t="s">
+      <c r="F23" s="225" t="s">
         <v>635</v>
       </c>
-      <c r="G23" s="197" t="s">
+      <c r="G23" s="225" t="s">
         <v>635</v>
       </c>
-      <c r="H23" s="198" t="s">
+      <c r="H23" s="226" t="s">
         <v>635</v>
       </c>
     </row>
@@ -8964,47 +8973,47 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="130"/>
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="227" t="s">
         <v>637</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="201"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="229"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="134"/>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="227" t="s">
         <v>638</v>
       </c>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="203"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="231"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="134"/>
-      <c r="B27" s="199"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="201"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="229"/>
     </row>
     <row r="28" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="211" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="185"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="212"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="212"/>
+      <c r="F28" s="213"/>
       <c r="G28" s="135">
         <f>SUM(G21)*1.1</f>
         <v>968000000.00000012</v>
@@ -9015,25 +9024,25 @@
       <c r="A29" s="137"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
-      <c r="D29" s="186" t="s">
+      <c r="D29" s="214" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="215"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="139"/>
       <c r="B30" s="140"/>
       <c r="C30" s="140"/>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="216" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="189"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="217"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1">
       <c r="A31" s="141"/>
@@ -9057,26 +9066,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
@@ -9086,6 +9075,26 @@
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iam_비교.xlsx
+++ b/iam_비교.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551F8304-3797-504D-A580-7E0503797157}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM비교" sheetId="1" r:id="rId1"/>
-    <sheet name="이슈사항" sheetId="10" r:id="rId2"/>
-    <sheet name="oracel상세견적" sheetId="7" r:id="rId3"/>
-    <sheet name="이니텍상세견적" sheetId="8" r:id="rId4"/>
-    <sheet name="Nets상세견적" sheetId="9" r:id="rId5"/>
-    <sheet name="SSO_AS-IS" sheetId="2" r:id="rId6"/>
-    <sheet name="단일서비스인증" sheetId="3" r:id="rId7"/>
-    <sheet name="APP" sheetId="4" r:id="rId8"/>
+    <sheet name="제안내용" sheetId="11" r:id="rId2"/>
+    <sheet name="이슈사항" sheetId="10" r:id="rId3"/>
+    <sheet name="oracel상세견적" sheetId="7" r:id="rId4"/>
+    <sheet name="이니텍상세견적" sheetId="8" r:id="rId5"/>
+    <sheet name="Nets상세견적" sheetId="9" r:id="rId6"/>
+    <sheet name="SSO_AS-IS" sheetId="2" r:id="rId7"/>
+    <sheet name="단일서비스인증" sheetId="3" r:id="rId8"/>
+    <sheet name="APP" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">단일서비스인증!$A$2:$H$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">단일서비스인증!$A$2:$H$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="686">
   <si>
     <t>Directory Services Plus</t>
   </si>
@@ -4001,17 +4003,85 @@
     <t>test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>컨설팅 미포함, agent 포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨설팅 : 사이트연계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨설팅 비용 포함, agent 포함 60개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW분리발주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW용 RFP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI용 RFP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 도입된 오라클 DB 사용(추후 사용양이 줄어서 사용 원활)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티베로 도입?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드잇 사용? 현재 10대의 클라우드 이용?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존사이트 연결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존사이트를 연결하는가?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 시점의 사이트만 연결(신규)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적서에 조항 포함 필요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="@&quot;님 귀하&quot;"/>
-    <numFmt numFmtId="178" formatCode="&quot;₩&quot;#,##0\(\V\A\T\ &quot;별&quot;&quot;도&quot;\)"/>
-    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0\(\V\A\T\ &quot;포&quot;&quot;함&quot;\)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="@&quot;님 귀하&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0\(\V\A\T\ &quot;별&quot;&quot;도&quot;\)"/>
+    <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0\(\V\A\T\ &quot;포&quot;&quot;함&quot;\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -5224,7 +5294,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -5247,41 +5317,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5335,7 +5405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5344,10 +5414,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5356,13 +5426,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5371,13 +5441,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5386,13 +5456,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
@@ -5407,7 +5477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5419,16 +5489,16 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5437,19 +5507,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5461,19 +5531,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5485,10 +5555,10 @@
     <xf numFmtId="3" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5501,7 +5571,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5513,7 +5583,7 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="25" fillId="8" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5522,13 +5592,13 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="8" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="8" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="28" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="8" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="29" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5537,13 +5607,13 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="8" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="8" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="35" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="8" borderId="36" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="36" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5567,7 +5637,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5582,43 +5652,43 @@
     <xf numFmtId="0" fontId="30" fillId="8" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="8" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="61" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="9" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="9" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5639,10 +5709,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="9" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="9" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="9" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5666,16 +5736,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
@@ -5687,6 +5757,45 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5732,61 +5841,142 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="33" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5804,139 +5994,19 @@
     <xf numFmtId="31" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - 강조색3" xfId="4" builtinId="40"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="스타일 1" xfId="2"/>
+    <cellStyle name="스타일 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_견적서 (2)" xfId="5"/>
+    <cellStyle name="표준_견적서 (2)" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5969,7 +6039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 2"/>
+        <xdr:cNvPr id="2" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6027,22 +6103,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 3"/>
+        <xdr:cNvPr id="3" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6934200" y="209550"/>
-          <a:ext cx="7153275" cy="0"/>
+          <a:off x="6942667" y="220133"/>
+          <a:ext cx="7273925" cy="0"/>
           <a:chOff x="1265" y="2865"/>
           <a:chExt cx="9560" cy="80"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 4"/>
+          <xdr:cNvPr id="4" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6068,7 +6156,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 5"/>
+          <xdr:cNvPr id="5" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6094,7 +6188,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 6"/>
+          <xdr:cNvPr id="6" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -6136,7 +6236,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 30"/>
+        <xdr:cNvPr id="7" name="Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6505,7 +6611,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 11" descr="포맷변환_명함용 이미지"/>
+        <xdr:cNvPr id="8" name="그림 11" descr="포맷변환_명함용 이미지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6551,7 +6663,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 116"/>
+        <xdr:cNvPr id="9" name="Picture 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6597,7 +6715,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 11" descr="포맷변환_명함용 이미지"/>
+        <xdr:cNvPr id="10" name="그림 11" descr="포맷변환_명함용 이미지">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6633,13 +6757,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>101600</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>590550</xdr:colOff>
+          <xdr:colOff>596900</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -6649,6 +6773,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6699,7 +6826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6987,22 +7120,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="31.25" style="31" customWidth="1"/>
-    <col min="2" max="2" width="49.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.125" style="32" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="9" style="32"/>
-    <col min="7" max="7" width="32.25" style="32" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" style="32" customWidth="1"/>
     <col min="8" max="8" width="10" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="32"/>
     <col min="11" max="11" width="13" style="32" bestFit="1" customWidth="1"/>
@@ -7124,7 +7257,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="33">
+    <row r="9" spans="1:7" ht="36">
       <c r="A9" s="149"/>
       <c r="B9" s="43"/>
       <c r="C9" s="56" t="s">
@@ -7144,7 +7277,7 @@
       <c r="D10" s="46"/>
       <c r="G10" s="34"/>
     </row>
-    <row r="11" spans="1:7" ht="49.5">
+    <row r="11" spans="1:7" ht="54">
       <c r="A11" s="148" t="s">
         <v>463</v>
       </c>
@@ -7230,7 +7363,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
+    <row r="19" spans="1:5" ht="36">
       <c r="A19" s="54" t="s">
         <v>499</v>
       </c>
@@ -7411,9 +7544,24 @@
         <v>643</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:3">
       <c r="B34" s="32" t="s">
         <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" s="32" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="32" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -7428,14 +7576,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D7A6F8-AF9E-3D47-AC24-13C3DB521F31}">
+  <dimension ref="B2:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
+        <v>677</v>
+      </c>
+      <c r="D6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="C10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -7533,34 +7758,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="55.75" customWidth="1"/>
-    <col min="4" max="4" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:8" ht="28">
+      <c r="A1" s="166" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="58" t="s">
@@ -7589,19 +7814,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="167" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="169" t="s">
         <v>545</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7630,7 +7855,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="157"/>
+      <c r="A5" s="170"/>
       <c r="B5" s="1" t="s">
         <v>548</v>
       </c>
@@ -7657,7 +7882,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="157"/>
+      <c r="A6" s="170"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7683,8 +7908,8 @@
         <v>82080000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="157"/>
+    <row r="7" spans="1:8" ht="29">
+      <c r="A7" s="170"/>
       <c r="B7" s="1" t="s">
         <v>549</v>
       </c>
@@ -7710,8 +7935,8 @@
         <v>617824495.13488698</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="158"/>
+    <row r="8" spans="1:8" ht="29">
+      <c r="A8" s="171"/>
       <c r="B8" s="1" t="s">
         <v>550</v>
       </c>
@@ -7736,13 +7961,13 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="164" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
       <c r="F9" s="63">
         <f>SUM(F4:F7)+G8</f>
         <v>4376941703.7829571</v>
@@ -7780,64 +8005,64 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="167" t="s">
         <v>556</v>
       </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-    </row>
-    <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="159" t="s">
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+    </row>
+    <row r="12" spans="1:8" ht="58">
+      <c r="A12" s="172" t="s">
         <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="173" t="s">
         <v>559</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="175">
         <v>5</v>
       </c>
-      <c r="E12" s="164" t="s">
+      <c r="E12" s="177" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="164" t="s">
+      <c r="F12" s="177" t="s">
         <v>536</v>
       </c>
-      <c r="G12" s="166">
+      <c r="G12" s="179">
         <v>20000000</v>
       </c>
-      <c r="H12" s="168">
+      <c r="H12" s="181">
         <f>G12*D12</f>
         <v>100000000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="159"/>
+    <row r="13" spans="1:8" ht="28">
+      <c r="A13" s="172"/>
       <c r="B13" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="169"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="182"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="165" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
       <c r="F14" s="63">
         <f>SUM(F12:F13)</f>
         <v>0</v>
@@ -7875,19 +8100,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="167" t="s">
         <v>562</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="169" t="s">
         <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -7916,7 +8141,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="157"/>
+      <c r="A18" s="170"/>
       <c r="B18" s="1" t="s">
         <v>537</v>
       </c>
@@ -7942,8 +8167,8 @@
         <v>37754730</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="25.5">
-      <c r="A19" s="157"/>
+    <row r="19" spans="1:8" ht="29">
+      <c r="A19" s="170"/>
       <c r="B19" s="1" t="s">
         <v>534</v>
       </c>
@@ -7970,13 +8195,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="151" t="s">
+      <c r="A20" s="164" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
       <c r="F20" s="63">
         <f>SUM(F17:F19)</f>
         <v>740802823.1258049</v>
@@ -7991,10 +8216,10 @@
       <c r="A21" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="158" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="173"/>
+      <c r="C21" s="159"/>
       <c r="D21" s="59" t="s">
         <v>565</v>
       </c>
@@ -8012,25 +8237,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="160" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="176"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="163" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="154" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="171"/>
+      <c r="C23" s="155"/>
       <c r="D23" s="65">
         <v>5</v>
       </c>
@@ -8048,11 +8273,11 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="177"/>
-      <c r="B24" s="170" t="s">
+      <c r="A24" s="163"/>
+      <c r="B24" s="154" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="171"/>
+      <c r="C24" s="155"/>
       <c r="D24" s="65">
         <v>6</v>
       </c>
@@ -8070,11 +8295,11 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="177"/>
-      <c r="B25" s="170" t="s">
+      <c r="A25" s="163"/>
+      <c r="B25" s="154" t="s">
         <v>569</v>
       </c>
-      <c r="C25" s="171"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="65">
         <v>6</v>
       </c>
@@ -8092,11 +8317,11 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="177"/>
-      <c r="B26" s="170" t="s">
+      <c r="A26" s="163"/>
+      <c r="B26" s="154" t="s">
         <v>570</v>
       </c>
-      <c r="C26" s="171"/>
+      <c r="C26" s="155"/>
       <c r="D26" s="65">
         <v>5</v>
       </c>
@@ -8114,11 +8339,11 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="177"/>
-      <c r="B27" s="170" t="s">
+      <c r="A27" s="163"/>
+      <c r="B27" s="154" t="s">
         <v>571</v>
       </c>
-      <c r="C27" s="171"/>
+      <c r="C27" s="155"/>
       <c r="D27" s="65">
         <v>6</v>
       </c>
@@ -8136,11 +8361,11 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="177"/>
-      <c r="B28" s="170" t="s">
+      <c r="A28" s="163"/>
+      <c r="B28" s="154" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="171"/>
+      <c r="C28" s="155"/>
       <c r="D28" s="65">
         <v>6</v>
       </c>
@@ -8158,11 +8383,11 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="177"/>
-      <c r="B29" s="170" t="s">
+      <c r="A29" s="163"/>
+      <c r="B29" s="154" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="171"/>
+      <c r="C29" s="155"/>
       <c r="D29" s="65">
         <v>3</v>
       </c>
@@ -8180,11 +8405,11 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="177"/>
-      <c r="B30" s="170" t="s">
+      <c r="A30" s="163"/>
+      <c r="B30" s="154" t="s">
         <v>573</v>
       </c>
-      <c r="C30" s="171"/>
+      <c r="C30" s="155"/>
       <c r="D30" s="65">
         <v>3</v>
       </c>
@@ -8202,11 +8427,11 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="177"/>
-      <c r="B31" s="170" t="s">
+      <c r="A31" s="163"/>
+      <c r="B31" s="154" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="171"/>
+      <c r="C31" s="155"/>
       <c r="D31" s="65">
         <v>2</v>
       </c>
@@ -8224,11 +8449,11 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="177"/>
-      <c r="B32" s="170" t="s">
+      <c r="A32" s="163"/>
+      <c r="B32" s="154" t="s">
         <v>575</v>
       </c>
-      <c r="C32" s="171"/>
+      <c r="C32" s="155"/>
       <c r="D32" s="65">
         <v>5</v>
       </c>
@@ -8246,11 +8471,11 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="177"/>
-      <c r="B33" s="170" t="s">
+      <c r="A33" s="163"/>
+      <c r="B33" s="154" t="s">
         <v>576</v>
       </c>
-      <c r="C33" s="171"/>
+      <c r="C33" s="155"/>
       <c r="D33" s="65">
         <v>3</v>
       </c>
@@ -8268,11 +8493,11 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="177"/>
-      <c r="B34" s="170" t="s">
+      <c r="A34" s="163"/>
+      <c r="B34" s="154" t="s">
         <v>577</v>
       </c>
-      <c r="C34" s="171"/>
+      <c r="C34" s="155"/>
       <c r="D34" s="65">
         <v>2</v>
       </c>
@@ -8290,11 +8515,11 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="177"/>
-      <c r="B35" s="170" t="s">
+      <c r="A35" s="163"/>
+      <c r="B35" s="154" t="s">
         <v>578</v>
       </c>
-      <c r="C35" s="171"/>
+      <c r="C35" s="155"/>
       <c r="D35" s="65">
         <v>2</v>
       </c>
@@ -8312,11 +8537,11 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="177"/>
-      <c r="B36" s="170" t="s">
+      <c r="A36" s="163"/>
+      <c r="B36" s="154" t="s">
         <v>579</v>
       </c>
-      <c r="C36" s="171"/>
+      <c r="C36" s="155"/>
       <c r="D36" s="65">
         <v>3</v>
       </c>
@@ -8334,11 +8559,11 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="177"/>
-      <c r="B37" s="170" t="s">
+      <c r="A37" s="163"/>
+      <c r="B37" s="154" t="s">
         <v>580</v>
       </c>
-      <c r="C37" s="171"/>
+      <c r="C37" s="155"/>
       <c r="D37" s="65">
         <v>2</v>
       </c>
@@ -8356,11 +8581,11 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="177"/>
-      <c r="B38" s="170" t="s">
+      <c r="A38" s="163"/>
+      <c r="B38" s="154" t="s">
         <v>581</v>
       </c>
-      <c r="C38" s="171"/>
+      <c r="C38" s="155"/>
       <c r="D38" s="65">
         <v>2</v>
       </c>
@@ -8378,11 +8603,11 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="177"/>
-      <c r="B39" s="170" t="s">
+      <c r="A39" s="163"/>
+      <c r="B39" s="154" t="s">
         <v>582</v>
       </c>
-      <c r="C39" s="171"/>
+      <c r="C39" s="155"/>
       <c r="D39" s="65">
         <v>2</v>
       </c>
@@ -8399,14 +8624,14 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="181" t="s">
+    <row r="40" spans="1:8" ht="18" thickBot="1">
+      <c r="A40" s="156" t="s">
         <v>583</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="157"/>
       <c r="F40" s="69">
         <f>SUM(F23:F37)</f>
         <v>0</v>
@@ -8417,7 +8642,7 @@
         <v>630000000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1">
+    <row r="41" spans="1:8" ht="18" thickBot="1">
       <c r="A41" s="72"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
@@ -8427,14 +8652,14 @@
       <c r="G41" s="76"/>
       <c r="H41" s="77"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="178" t="s">
+    <row r="42" spans="1:8" ht="18" thickBot="1">
+      <c r="A42" s="151" t="s">
         <v>584</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="180"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="153"/>
       <c r="F42" s="78">
         <f>F40</f>
         <v>0</v>
@@ -8445,14 +8670,14 @@
         <v>2561323358.072628</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A43" s="178" t="s">
+    <row r="43" spans="1:8" ht="18" thickBot="1">
+      <c r="A43" s="151" t="s">
         <v>585</v>
       </c>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="180"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="153"/>
       <c r="F43" s="78">
         <f>F42*1.1</f>
         <v>0</v>
@@ -8485,13 +8710,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A22:H22"/>
@@ -8508,45 +8742,36 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8560,17 +8785,17 @@
       <c r="G1" s="89"/>
       <c r="H1" s="89"/>
     </row>
-    <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="223" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="90"/>
@@ -8582,18 +8807,18 @@
       <c r="G3" s="90"/>
       <c r="H3" s="90"/>
     </row>
-    <row r="4" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
+    <row r="4" spans="1:8" ht="26" thickBot="1">
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="224"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="225" t="s">
         <v>587</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -8609,9 +8834,9 @@
       <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="186"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="188"/>
+      <c r="A6" s="226"/>
+      <c r="B6" s="227"/>
+      <c r="C6" s="228"/>
       <c r="D6" s="99" t="s">
         <v>590</v>
       </c>
@@ -8626,69 +8851,69 @@
       <c r="A7" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="B7" s="189">
+      <c r="B7" s="229">
         <v>43336</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="190" t="s">
+      <c r="C7" s="229"/>
+      <c r="D7" s="219" t="s">
         <v>593</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="219"/>
+      <c r="F7" s="230" t="s">
         <v>594</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="231"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="193">
+      <c r="B8" s="218">
         <f>G21</f>
         <v>880000000</v>
       </c>
-      <c r="C8" s="193"/>
-      <c r="D8" s="190" t="s">
+      <c r="C8" s="218"/>
+      <c r="D8" s="219" t="s">
         <v>596</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="194" t="s">
+      <c r="E8" s="219"/>
+      <c r="F8" s="220" t="s">
         <v>597</v>
       </c>
-      <c r="G8" s="194"/>
-      <c r="H8" s="195"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="221"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="106"/>
-      <c r="B9" s="196">
+      <c r="B9" s="222">
         <f>B8*1.1</f>
         <v>968000000.00000012</v>
       </c>
-      <c r="C9" s="196"/>
-      <c r="D9" s="190" t="s">
+      <c r="C9" s="222"/>
+      <c r="D9" s="219" t="s">
         <v>598</v>
       </c>
-      <c r="E9" s="190"/>
-      <c r="F9" s="194" t="s">
+      <c r="E9" s="219"/>
+      <c r="F9" s="220" t="s">
         <v>599</v>
       </c>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="221"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="204" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="205"/>
+      <c r="H10" s="206"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="108"/>
@@ -8700,7 +8925,7 @@
       <c r="G11" s="109"/>
       <c r="H11" s="110"/>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1">
+    <row r="12" spans="1:8" ht="18" thickBot="1">
       <c r="A12" s="108" t="s">
         <v>602</v>
       </c>
@@ -8714,14 +8939,14 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+    <row r="13" spans="1:8" ht="18" thickBot="1">
       <c r="A13" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="B13" s="200" t="s">
+      <c r="B13" s="207" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="201"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="114" t="s">
         <v>606</v>
       </c>
@@ -8738,11 +8963,11 @@
         <v>610</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A14" s="202" t="s">
+    <row r="14" spans="1:8" ht="18" thickTop="1">
+      <c r="A14" s="209" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="204" t="s">
+      <c r="B14" s="211" t="s">
         <v>612</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -8765,8 +8990,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="203"/>
-      <c r="B15" s="205"/>
+      <c r="A15" s="210"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="10" t="s">
         <v>615</v>
       </c>
@@ -8782,13 +9007,13 @@
       <c r="G15" s="121" t="s">
         <v>617</v>
       </c>
-      <c r="H15" s="207" t="s">
+      <c r="H15" s="214" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="203"/>
-      <c r="B16" s="205"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="8" t="s">
         <v>619</v>
       </c>
@@ -8804,11 +9029,11 @@
       <c r="G16" s="123" t="s">
         <v>617</v>
       </c>
-      <c r="H16" s="208"/>
-    </row>
-    <row r="17" spans="1:8" ht="22.5">
-      <c r="A17" s="203"/>
-      <c r="B17" s="205"/>
+      <c r="H16" s="215"/>
+    </row>
+    <row r="17" spans="1:8" ht="28">
+      <c r="A17" s="210"/>
+      <c r="B17" s="212"/>
       <c r="C17" s="11" t="s">
         <v>620</v>
       </c>
@@ -8824,13 +9049,13 @@
       <c r="G17" s="14">
         <v>300000000</v>
       </c>
-      <c r="H17" s="209" t="s">
+      <c r="H17" s="216" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="203"/>
-      <c r="B18" s="206"/>
+    <row r="18" spans="1:8" ht="28">
+      <c r="A18" s="210"/>
+      <c r="B18" s="213"/>
       <c r="C18" s="11" t="s">
         <v>623</v>
       </c>
@@ -8846,11 +9071,11 @@
       <c r="G18" s="14">
         <v>225000000</v>
       </c>
-      <c r="H18" s="208"/>
+      <c r="H18" s="215"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="203"/>
-      <c r="B19" s="210" t="s">
+      <c r="A19" s="210"/>
+      <c r="B19" s="217" t="s">
         <v>625</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -8872,9 +9097,9 @@
         <v>618</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="203"/>
-      <c r="B20" s="206"/>
+    <row r="20" spans="1:8" ht="28">
+      <c r="A20" s="210"/>
+      <c r="B20" s="213"/>
       <c r="C20" s="11" t="s">
         <v>627</v>
       </c>
@@ -8895,14 +9120,14 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="190" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="192"/>
       <c r="G21" s="127">
         <f>SUM(G14:G20)</f>
         <v>880000000</v>
@@ -8913,49 +9138,49 @@
       <c r="A22" s="129" t="s">
         <v>631</v>
       </c>
-      <c r="B22" s="221" t="s">
+      <c r="B22" s="193" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="222" t="s">
+      <c r="C22" s="194" t="s">
         <v>633</v>
       </c>
-      <c r="D22" s="222" t="s">
+      <c r="D22" s="194" t="s">
         <v>633</v>
       </c>
-      <c r="E22" s="222" t="s">
+      <c r="E22" s="194" t="s">
         <v>633</v>
       </c>
-      <c r="F22" s="222" t="s">
+      <c r="F22" s="194" t="s">
         <v>633</v>
       </c>
-      <c r="G22" s="222" t="s">
+      <c r="G22" s="194" t="s">
         <v>633</v>
       </c>
-      <c r="H22" s="223" t="s">
+      <c r="H22" s="195" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="130"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="196" t="s">
         <v>634</v>
       </c>
-      <c r="C23" s="225" t="s">
+      <c r="C23" s="197" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="225" t="s">
+      <c r="D23" s="197" t="s">
         <v>635</v>
       </c>
-      <c r="E23" s="225" t="s">
+      <c r="E23" s="197" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="225" t="s">
+      <c r="F23" s="197" t="s">
         <v>635</v>
       </c>
-      <c r="G23" s="225" t="s">
+      <c r="G23" s="197" t="s">
         <v>635</v>
       </c>
-      <c r="H23" s="226" t="s">
+      <c r="H23" s="198" t="s">
         <v>635</v>
       </c>
     </row>
@@ -8973,78 +9198,78 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="130"/>
-      <c r="B25" s="227" t="s">
+      <c r="B25" s="199" t="s">
         <v>637</v>
       </c>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="229"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="201"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="134"/>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="199" t="s">
         <v>638</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="231"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" thickBot="1">
+      <c r="C26" s="202"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="202"/>
+      <c r="H26" s="203"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" thickBot="1">
       <c r="A27" s="134"/>
-      <c r="B27" s="227"/>
-      <c r="C27" s="228"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="229"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A28" s="211" t="s">
+      <c r="B27" s="199"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="201"/>
+    </row>
+    <row r="28" spans="1:8" ht="19" thickTop="1" thickBot="1">
+      <c r="A28" s="183" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="185"/>
       <c r="G28" s="135">
         <f>SUM(G21)*1.1</f>
         <v>968000000.00000012</v>
       </c>
       <c r="H28" s="136"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" thickTop="1">
+    <row r="29" spans="1:8" ht="18" thickTop="1">
       <c r="A29" s="137"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
-      <c r="D29" s="214" t="s">
+      <c r="D29" s="186" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="215"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="187"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="139"/>
       <c r="B30" s="140"/>
       <c r="C30" s="140"/>
-      <c r="D30" s="216" t="s">
+      <c r="D30" s="188" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="217"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" thickBot="1">
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="189"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" thickBot="1">
       <c r="A31" s="141"/>
       <c r="B31" s="142"/>
       <c r="C31" s="142"/>
@@ -9066,6 +9291,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
@@ -9075,26 +9320,6 @@
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9108,13 +9333,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
+                <xdr:colOff>101600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
+                <xdr:colOff>596900</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -9130,15 +9355,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
@@ -9160,21 +9385,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9204,7 +9429,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" ht="18">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -9237,7 +9462,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="18">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -9261,7 +9486,7 @@
       </c>
       <c r="H3" s="19"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="18">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -9342,7 +9567,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="18">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -9366,7 +9591,7 @@
       </c>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="18">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -9423,7 +9648,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="18">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -9447,7 +9672,7 @@
       </c>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" ht="18">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -9471,7 +9696,7 @@
       </c>
       <c r="H9" s="19"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" ht="18">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -9495,7 +9720,7 @@
       </c>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" ht="18">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -9519,7 +9744,7 @@
       </c>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" ht="18">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -9543,7 +9768,7 @@
       </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="18">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -9567,7 +9792,7 @@
       </c>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="18">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -9594,7 +9819,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="18">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -9618,7 +9843,7 @@
       </c>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="18">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -9642,7 +9867,7 @@
       </c>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="18">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -9666,7 +9891,7 @@
       </c>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="18">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -9690,7 +9915,7 @@
       </c>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -9714,7 +9939,7 @@
       </c>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="18">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -9738,7 +9963,7 @@
       </c>
       <c r="H20" s="19"/>
     </row>
-    <row r="21" spans="1:10" ht="33">
+    <row r="21" spans="1:10" ht="36">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -9762,7 +9987,7 @@
       </c>
       <c r="H21" s="19"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="18">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -9786,7 +10011,7 @@
       </c>
       <c r="H22" s="19"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="18">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -9810,7 +10035,7 @@
       </c>
       <c r="H23" s="19"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="18">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -9834,7 +10059,7 @@
       </c>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="18">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -9864,7 +10089,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="18">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -9891,7 +10116,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="18">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -9945,20 +10170,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12142,24 +12367,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H97"/>
+  <autoFilter ref="A2:H97" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
